--- a/config_12.15/signIn_cfg.xlsx
+++ b/config_12.15/signIn_cfg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>id|</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -222,6 +222,10 @@
   </si>
   <si>
     <t>VIP3双倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin_notcpl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +656,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G9" sqref="A9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -864,7 +868,9 @@
       <c r="F9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
     </row>
@@ -880,6 +886,9 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
     </row>
@@ -902,6 +911,9 @@
       <c r="F11" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
     </row>
@@ -917,6 +929,9 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
+      <c r="G12" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -937,6 +952,9 @@
       <c r="F13" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="G13" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -950,6 +968,9 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -963,6 +984,9 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_12.15/signIn_cfg.xlsx
+++ b/config_12.15/signIn_cfg.xlsx
@@ -188,44 +188,31 @@
     <t>signin_cpl</t>
   </si>
   <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IP1双倍</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP2三倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3三倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP5三倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP2双倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3双倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>signin_notcpl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3三倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2三倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1双倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v5三倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2双倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3双倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +643,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="A9:G15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>41</v>
@@ -765,7 +752,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>41</v>
@@ -822,7 +809,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
@@ -843,7 +830,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>41</v>
@@ -866,10 +853,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
@@ -887,7 +874,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
@@ -909,10 +896,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -930,7 +917,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="G12" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -950,10 +937,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -969,7 +956,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -985,7 +972,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.15/signIn_cfg.xlsx
+++ b/config_12.15/signIn_cfg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>id|</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>金币x60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_zh</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +688,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -818,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>54</v>

--- a/config_12.15/signIn_cfg.xlsx
+++ b/config_12.15/signIn_cfg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>id|</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -213,6 +213,43 @@
   </si>
   <si>
     <t>v3双倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000金币</t>
+  </si>
+  <si>
+    <t>锁定*3</t>
+  </si>
+  <si>
+    <t>5000金币</t>
+  </si>
+  <si>
+    <t>8000金币</t>
+  </si>
+  <si>
+    <t>召唤*3</t>
+  </si>
+  <si>
+    <t>10000金币</t>
+  </si>
+  <si>
+    <t>20000金币</t>
+  </si>
+  <si>
+    <t>金币x6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x60000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +680,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,13 +737,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>45</v>
@@ -725,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -743,13 +780,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>44</v>
@@ -768,7 +805,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -784,12 +821,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
@@ -802,12 +837,14 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
@@ -823,12 +860,14 @@
         <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>46</v>
       </c>
